--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_30.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2185048.198682925</v>
+        <v>2289227.833133997</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -668,13 +670,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>197.5523887421112</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -707,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>37.56131489962108</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -741,7 +743,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>147.4450655646384</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -756,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>135.8519492397404</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>37.67709528776653</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -911,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -950,16 +952,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>228.8563935857044</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>52.98455791795107</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>101.086144103102</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,7 +1113,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>16.29268140181063</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1148,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1196,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>57.38876412871128</v>
+        <v>8.276279573898277</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1306,10 +1308,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>11.29085342491948</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>62.55113564746255</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>108.3613954702479</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>19.86507844888254</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1591,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>58.24570521548602</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1853,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -2002,10 +2004,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>97.75513637220187</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2020,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2052,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2065,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>126.4267013134142</v>
       </c>
     </row>
     <row r="20">
@@ -2129,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2236,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2257,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>12.74007641194068</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2305,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>198.4943254374923</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2327,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,10 +2484,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0.825382616192478</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2527,13 +2529,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>178.5134655978075</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2603,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2716,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>90.85912858529869</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2855,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2959,16 +2961,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>33.01627976944107</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3007,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>206.1081217804601</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3035,7 +3037,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3086,7 +3088,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3187,10 +3189,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>83.44729448253345</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3199,13 +3201,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>38.05096575280812</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3253,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3314,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3427,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>21.90286287505374</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>28.5400493088928</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3551,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3664,10 +3666,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>104.8913819999782</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>57.24347904696366</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3743,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3910,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>26.70391688093298</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>172.026033500074</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3964,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4034,7 +4036,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4138,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428169</v>
+        <v>95.25381996636162</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4195,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1878.169188758594</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C2" t="n">
-        <v>1878.169188758594</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D2" t="n">
-        <v>1519.903490151844</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E2" t="n">
-        <v>1134.1152375536</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>723.1293327639921</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>308.0568826089886</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4352,28 +4354,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2994.5429342656</v>
+        <v>2717.866206673494</v>
       </c>
       <c r="W2" t="n">
-        <v>2641.774278995486</v>
+        <v>2717.866206673494</v>
       </c>
       <c r="X2" t="n">
-        <v>2268.308520734406</v>
+        <v>2717.866206673494</v>
       </c>
       <c r="Y2" t="n">
-        <v>1878.169188758594</v>
+        <v>2327.726874697682</v>
       </c>
     </row>
     <row r="3">
@@ -4389,22 +4391,22 @@
         <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
@@ -4462,34 +4464,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>701.1808689801002</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="C4" t="n">
-        <v>532.2446860521933</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="D4" t="n">
-        <v>382.1280466398576</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="E4" t="n">
-        <v>234.2149530574645</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574645</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
         <v>332.3555681596505</v>
@@ -4510,28 +4512,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181849</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181849</v>
+        <v>502.1464732512862</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181849</v>
+        <v>502.1464732512862</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181849</v>
+        <v>502.1464732512862</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181849</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="X4" t="n">
-        <v>920.8870058181849</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="Y4" t="n">
-        <v>882.8293338103399</v>
+        <v>212.7293032143256</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1661.795585684488</v>
+        <v>1959.379186075721</v>
       </c>
       <c r="C5" t="n">
-        <v>1292.833068744076</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D5" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4565,19 +4567,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4598,19 +4600,19 @@
         <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520488</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2778.169331191494</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W5" t="n">
-        <v>2425.400675921379</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="X5" t="n">
-        <v>2051.9349176603</v>
+        <v>2349.518518051532</v>
       </c>
       <c r="Y5" t="n">
-        <v>1661.795585684488</v>
+        <v>1959.379186075721</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>360.6423967967187</v>
+        <v>168.6193326979431</v>
       </c>
       <c r="C7" t="n">
-        <v>360.6423967967187</v>
+        <v>168.6193326979431</v>
       </c>
       <c r="D7" t="n">
-        <v>360.6423967967187</v>
+        <v>168.6193326979431</v>
       </c>
       <c r="E7" t="n">
-        <v>212.7293032143256</v>
+        <v>168.6193326979431</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
         <v>66.51211643218342</v>
@@ -4747,28 +4749,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181849</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="U7" t="n">
-        <v>631.7841389438285</v>
+        <v>350.2677975281828</v>
       </c>
       <c r="V7" t="n">
-        <v>377.0996507379416</v>
+        <v>350.2677975281828</v>
       </c>
       <c r="W7" t="n">
-        <v>377.0996507379416</v>
+        <v>350.2677975281828</v>
       </c>
       <c r="X7" t="n">
-        <v>377.0996507379416</v>
+        <v>350.2677975281828</v>
       </c>
       <c r="Y7" t="n">
-        <v>360.6423967967187</v>
+        <v>350.2677975281828</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1678.62132134232</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.097597267228</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2866.097597267228</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W8" t="n">
-        <v>2513.328941997114</v>
+        <v>2403.038273524209</v>
       </c>
       <c r="X8" t="n">
-        <v>2455.360493382254</v>
+        <v>2394.678395166736</v>
       </c>
       <c r="Y8" t="n">
-        <v>2065.221161406442</v>
+        <v>2004.539063190924</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4914,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>530.5487792519424</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="C10" t="n">
-        <v>530.5487792519424</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="D10" t="n">
-        <v>380.4321398396066</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="E10" t="n">
-        <v>380.4321398396066</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396066</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757124</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S10" t="n">
-        <v>831.0565485757124</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T10" t="n">
-        <v>831.0565485757124</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="U10" t="n">
-        <v>541.953681701356</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="V10" t="n">
-        <v>530.5487792519424</v>
+        <v>576.372060369826</v>
       </c>
       <c r="W10" t="n">
-        <v>530.5487792519424</v>
+        <v>513.1890950693588</v>
       </c>
       <c r="X10" t="n">
-        <v>530.5487792519424</v>
+        <v>513.1890950693588</v>
       </c>
       <c r="Y10" t="n">
-        <v>530.5487792519424</v>
+        <v>513.1890950693588</v>
       </c>
     </row>
     <row r="11">
@@ -5030,28 +5032,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5115,31 +5117,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1074.481071167373</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>741.8431516380886</v>
+        <v>806.8386896933887</v>
       </c>
       <c r="C13" t="n">
-        <v>572.9069687101817</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="D13" t="n">
-        <v>422.7903292978459</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E13" t="n">
-        <v>422.7903292978459</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F13" t="n">
-        <v>422.7903292978459</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>255.5942300127259</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>113.8823988549239</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5239,10 +5241,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>923.4916164683283</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5273,25 +5275,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5309,16 +5311,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C15" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D15" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>2383.002557118213</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>2383.002557118213</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>2817.800993781637</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951538</v>
+        <v>2817.800993781637</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>3445.398957336244</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>3997.308687575531</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>4420.931837070599</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R15" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S15" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T15" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U15" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V15" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W15" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X15" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y15" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="16">
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5495,10 +5497,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5510,10 +5512,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
@@ -5595,22 +5597,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M18" t="n">
-        <v>1072.713683962606</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N18" t="n">
-        <v>1700.311647517212</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2252.221377756499</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>878.3568999154069</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C19" t="n">
-        <v>878.3568999154069</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5698,25 +5700,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1099.149479058937</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y19" t="n">
-        <v>878.3568999154069</v>
+        <v>1016.58045691144</v>
       </c>
     </row>
     <row r="20">
@@ -5741,37 +5743,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5786,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>2231.588527385791</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>2565.513299557012</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>3060.83890577277</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M21" t="n">
-        <v>3658.217393399322</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N21" t="n">
-        <v>4285.815356953929</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O21" t="n">
-        <v>4654.193497445481</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P21" t="n">
-        <v>4654.193497445481</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>782.8410298377091</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="C22" t="n">
-        <v>782.8410298377091</v>
+        <v>565.7099969556949</v>
       </c>
       <c r="D22" t="n">
-        <v>632.7243904253734</v>
+        <v>415.5933575433592</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>415.5933575433592</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>415.5933575433592</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>248.3972582582391</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>106.6854271004372</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>782.8410298377091</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,40 +6001,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M24" t="n">
-        <v>840.8417932021785</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N24" t="n">
-        <v>1468.439756756785</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O24" t="n">
-        <v>2020.349486996072</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P24" t="n">
-        <v>2443.97263649114</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2824.769373306003</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C25" t="n">
-        <v>2655.833190378096</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D25" t="n">
-        <v>2505.71655096576</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E25" t="n">
-        <v>2504.882831151424</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>2504.882831151424</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>4507.978318053498</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>4288.376853076439</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U25" t="n">
-        <v>3999.301626420637</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V25" t="n">
-        <v>3744.61713821475</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W25" t="n">
-        <v>3455.19996817779</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X25" t="n">
-        <v>3227.210417279773</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y25" t="n">
-        <v>3006.417838136243</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="26">
@@ -6218,43 +6220,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615667</v>
       </c>
       <c r="C27" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.71794833454</v>
       </c>
       <c r="D27" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673289</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667833</v>
       </c>
       <c r="F27" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694718</v>
       </c>
       <c r="G27" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740626</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385792</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385792</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913447</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>2490.323821483081</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>2490.323821483081</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>3087.702309109633</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>3715.300272664239</v>
       </c>
       <c r="O27" t="n">
-        <v>2297.690135143765</v>
+        <v>4267.210002903526</v>
       </c>
       <c r="P27" t="n">
-        <v>2297.690135143765</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R27" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S27" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301207</v>
       </c>
       <c r="T27" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.415660022981</v>
       </c>
       <c r="U27" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566166</v>
       </c>
       <c r="V27" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334423</v>
       </c>
       <c r="W27" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606222</v>
       </c>
       <c r="X27" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400689</v>
       </c>
       <c r="Y27" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635735</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>565.7099969556949</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>415.5933575433592</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>267.680263960966</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="29">
@@ -6443,25 +6445,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6476,34 +6478,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
@@ -6552,16 +6554,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1670.092171589158</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2530.951795518647</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>695.5020655703109</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C31" t="n">
-        <v>526.5658826424041</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D31" t="n">
-        <v>376.4492432300683</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E31" t="n">
-        <v>376.4492432300683</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>376.4492432300683</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>209.2531439449482</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1547.241535601839</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1257.824365564879</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1029.834814666861</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>809.0422355233313</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6692,46 +6694,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,28 +6773,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P33" t="n">
         <v>2319.799627685893</v>
@@ -6832,52 +6834,52 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>696.7084350851671</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C34" t="n">
-        <v>696.7084350851671</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D34" t="n">
-        <v>612.4182386381636</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E34" t="n">
-        <v>464.5051450557705</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
         <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
@@ -6886,22 +6888,22 @@
         <v>2379.917379832663</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855604</v>
+        <v>2341.482060890433</v>
       </c>
       <c r="U34" t="n">
-        <v>1871.240688199802</v>
+        <v>2052.406834234631</v>
       </c>
       <c r="V34" t="n">
-        <v>1616.556199993915</v>
+        <v>1797.722346028744</v>
       </c>
       <c r="W34" t="n">
-        <v>1327.139029956954</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X34" t="n">
-        <v>1099.149479058937</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y34" t="n">
-        <v>878.3568999154069</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="35">
@@ -6923,34 +6925,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6971,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F37" t="n">
-        <v>198.027470314254</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>2131.487582220359</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="38">
@@ -7169,25 +7171,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7208,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7260,13 +7262,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1231.938859683105</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1859.536823237711</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P39" t="n">
         <v>2283.159972732779</v>
@@ -7306,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="C40" t="n">
-        <v>513.8536007400712</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D40" t="n">
-        <v>513.8536007400712</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E40" t="n">
         <v>407.9027098310023</v>
@@ -7330,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2389.141387573227</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2169.539922596168</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1880.464695940366</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1625.780207734479</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1336.363037697518</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1108.373486799501</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>887.5809076559709</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,40 +7423,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O42" t="n">
-        <v>2297.690135143765</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P42" t="n">
-        <v>2297.690135143765</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2530.951795518647</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263526</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>565.7099969556949</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>415.5933575433592</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>267.680263960966</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>120.7903164630557</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>120.7903164630557</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>120.7903164630557</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580256</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580256</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.963083580256</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332386</v>
@@ -7664,34 +7666,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
         <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C45" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D45" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>2231.58852738579</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>2381.235169913445</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K45" t="n">
-        <v>2381.235169913445</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>2876.560776129204</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M45" t="n">
-        <v>2876.560776129204</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N45" t="n">
-        <v>3445.398957336243</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O45" t="n">
-        <v>3997.30868757553</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>4420.931837070598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>4654.19349744548</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S45" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T45" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U45" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V45" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W45" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X45" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y45" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>1053.171308869726</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>884.2351259418192</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>734.1184865294834</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>586.2053929470903</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>439.3154454491799</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>272.1193461640599</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1455.612352843496</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>1234.819773699966</v>
       </c>
     </row>
   </sheetData>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>71.47058471168944</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>61.40075786968299</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23479,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>87.17534280744522</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23890,10 +23892,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>50.86033664601048</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23908,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>92.15795203868058</v>
       </c>
     </row>
     <row r="20">
@@ -24124,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24145,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>68.52575990662484</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>20.09032791460254</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24370,10 +24372,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>145.6085800303767</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>73.62417772602052</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24604,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>54.56191943763255</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24847,13 +24849,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>107.2784330767828</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24895,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>46.02952154336791</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25075,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>65.1681785356789</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25087,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25126,7 +25128,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>179.3544845744802</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25315,16 +25317,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>143.6212754172151</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -25360,13 +25362,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>257.6444250803513</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25552,10 +25554,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>41.54258064659096</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>123.7828069546809</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25798,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>54.56191943763254</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>114.1584408891701</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26026,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.2291039219422</v>
+        <v>45.04089287986224</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26083,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>821785.2548503019</v>
+        <v>821785.2548503018</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>821785.2548503018</v>
+        <v>821785.2548503019</v>
       </c>
     </row>
     <row r="7">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>821785.2548503018</v>
+        <v>821785.2548503019</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>821785.2548503018</v>
+        <v>821785.2548503019</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>821785.2548503019</v>
+        <v>821785.2548503018</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>821785.2548503018</v>
+        <v>821785.2548503019</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982119</v>
+        <v>615781.3273982122</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982123</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982122</v>
       </c>
       <c r="E2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675046</v>
       </c>
       <c r="F2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="G2" t="n">
         <v>605359.9497675042</v>
       </c>
       <c r="H2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="I2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="J2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="K2" t="n">
         <v>605359.9497675046</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>605359.9497675046</v>
+      </c>
+      <c r="M2" t="n">
+        <v>605359.9497675046</v>
+      </c>
+      <c r="N2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="O2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="P2" t="n">
         <v>605359.9497675042</v>
-      </c>
-      <c r="L2" t="n">
-        <v>605359.9497675044</v>
-      </c>
-      <c r="M2" t="n">
-        <v>605359.9497675041</v>
-      </c>
-      <c r="N2" t="n">
-        <v>605359.9497675041</v>
-      </c>
-      <c r="O2" t="n">
-        <v>605359.9497675044</v>
-      </c>
-      <c r="P2" t="n">
-        <v>605359.9497675041</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>93596.74410405254</v>
+      </c>
+      <c r="C4" t="n">
         <v>93596.74410405253</v>
       </c>
-      <c r="C4" t="n">
-        <v>93596.74410405252</v>
-      </c>
       <c r="D4" t="n">
-        <v>93596.74410405259</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="E4" t="n">
+        <v>15436.64000687967</v>
+      </c>
+      <c r="F4" t="n">
+        <v>15436.64000687967</v>
+      </c>
+      <c r="G4" t="n">
         <v>15436.64000687966</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>15436.64000687966</v>
-      </c>
-      <c r="G4" t="n">
-        <v>15436.64000687967</v>
-      </c>
-      <c r="H4" t="n">
-        <v>15436.64000687967</v>
       </c>
       <c r="I4" t="n">
         <v>15436.64000687966</v>
       </c>
       <c r="J4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="K4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="L4" t="n">
-        <v>15436.64000687972</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="M4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="N4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="O4" t="n">
         <v>15436.64000687966</v>
       </c>
       <c r="P4" t="n">
-        <v>15436.64000687972</v>
+        <v>15436.64000687967</v>
       </c>
     </row>
     <row r="5">
@@ -26519,43 +26521,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-914494.1029948264</v>
+        <v>-914494.1029948263</v>
       </c>
       <c r="C6" t="n">
-        <v>414250.6427327666</v>
+        <v>414250.6427327665</v>
       </c>
       <c r="D6" t="n">
-        <v>414250.6427327667</v>
+        <v>414250.6427327663</v>
       </c>
       <c r="E6" t="n">
-        <v>163388.3181293623</v>
+        <v>163388.3181293625</v>
       </c>
       <c r="F6" t="n">
         <v>488800.7799367175</v>
       </c>
       <c r="G6" t="n">
+        <v>488800.7799367174</v>
+      </c>
+      <c r="H6" t="n">
         <v>488800.7799367175</v>
       </c>
-      <c r="H6" t="n">
-        <v>488800.7799367174</v>
-      </c>
       <c r="I6" t="n">
-        <v>488800.7799367174</v>
+        <v>488800.7799367175</v>
       </c>
       <c r="J6" t="n">
-        <v>271269.5775394404</v>
+        <v>271269.57753944</v>
       </c>
       <c r="K6" t="n">
-        <v>488800.7799367175</v>
+        <v>488800.7799367178</v>
       </c>
       <c r="L6" t="n">
+        <v>488800.7799367178</v>
+      </c>
+      <c r="M6" t="n">
+        <v>403745.752001206</v>
+      </c>
+      <c r="N6" t="n">
         <v>488800.7799367176</v>
-      </c>
-      <c r="M6" t="n">
-        <v>403745.7520012054</v>
-      </c>
-      <c r="N6" t="n">
-        <v>488800.7799367174</v>
       </c>
       <c r="O6" t="n">
         <v>488800.7799367176</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26808,16 +26810,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,13 +27390,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>97.0553756452093</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>290.1909435705138</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -27582,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>83.69700003642876</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -27597,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>180.9075580643283</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27631,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27670,16 +27672,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>98.89586488443047</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>316.746542760518</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,16 +27782,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>44.3349039198292</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27819,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27831,7 +27833,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>202.2919719502842</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27856,7 +27858,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27916,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>312.3423365497578</v>
+        <v>361.4548211045708</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28026,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28065,13 +28067,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>240.8467898989085</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>223.9718626891284</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -31513,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,10 +31600,10 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
@@ -31610,28 +31612,28 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,10 +31837,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31847,22 +31849,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>366.8427442359106</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>316.0872899694776</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,22 +32074,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>577.7447198439386</v>
       </c>
       <c r="M15" t="n">
-        <v>416.4300581532626</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32099,7 +32101,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32315,25 +32317,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>716.71805534327</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>400.8433522134843</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>514.6953762540926</v>
+        <v>574.6535388222617</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>300.7687781170413</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>250.1723312270667</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>248.0319961154033</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>360.9226811202611</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>333.9544784328825</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>168.0123247135882</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>237.3557891543622</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319853</v>
+        <v>198.560797075695</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>302.967544750805</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>195.7502366106279</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.586862646002</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>441.0292693655512</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>168.0123247135882</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>705.9257335045846</v>
+        <v>187.2159464875248</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
@@ -35258,19 +35260,19 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35495,22 +35497,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>235.5010321525773</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>173.4910455250332</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,22 +35722,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>439.1903400640643</v>
       </c>
       <c r="M15" t="n">
-        <v>274.2960242312443</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35747,7 +35749,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35963,25 +35965,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>574.5840214212516</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>266.868944799154</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>37.00975247789211</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>372.0991318096482</v>
+        <v>432.0572943778172</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36446,16 +36448,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>169.427066033708</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>110.1905571410452</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36676,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>110.1905571410443</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,25 +36916,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>191.358233988438</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,25 +37150,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>94.75954470991782</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875408</v>
+        <v>55.96455263125056</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>160.8335108287866</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243153</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37861,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>302.474889585677</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>22.33282074962425</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899029</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>574.5840214212514</v>
+        <v>55.87423440419153</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2289227.833133997</v>
+        <v>2285215.223120004</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -667,10 +667,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>37.56131489962108</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>90.98010614281421</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -743,7 +743,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646384</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -819,22 +819,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>72.0880274467731</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>135.8519492397404</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -904,7 +904,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>98.86905627466889</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>52.98455791795107</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>75.81375591394318</v>
       </c>
       <c r="F7" t="n">
-        <v>101.086144103102</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1135,19 +1135,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>143.8720165063984</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>8.276279573898277</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1299,19 +1299,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>62.55113564746255</v>
+        <v>122.0065063168758</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695416</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>108.3613954702479</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>16.92025364381838</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1663,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560531</v>
+        <v>386.237938656053</v>
       </c>
     </row>
     <row r="15">
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>58.24570521548602</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>126.4267013134142</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>127.5379405516739</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>12.74007641194068</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>178.5134655978075</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>80.08971311158706</v>
       </c>
     </row>
     <row r="26">
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>90.85912858529869</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>216.5793400412173</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2857,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3009,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>206.1081217804601</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3037,7 +3037,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3198,16 +3198,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>38.05096575280812</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>74.20064764874441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3432,10 +3432,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>28.5400493088928</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>186.5877792298974</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3556,7 +3556,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3663,22 +3663,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>57.24347904696366</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>43.3482415786093</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3912,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>26.70391688093298</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3957,7 +3957,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>95.25381996636162</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4194,10 +4194,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1941.127034633561</v>
+        <v>1959.379186075721</v>
       </c>
       <c r="C2" t="n">
-        <v>1572.164517693149</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D2" t="n">
-        <v>1213.898819086399</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E2" t="n">
-        <v>828.1105664881544</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4327,19 +4327,19 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4351,31 +4351,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2717.866206673494</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2717.866206673494</v>
+        <v>2332.8449443368</v>
       </c>
       <c r="X2" t="n">
-        <v>2717.866206673494</v>
+        <v>1959.379186075721</v>
       </c>
       <c r="Y2" t="n">
-        <v>2327.726874697682</v>
+        <v>1959.379186075721</v>
       </c>
     </row>
     <row r="3">
@@ -4385,10 +4385,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
         <v>618.1564155387305</v>
@@ -4406,31 +4406,31 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4442,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4451,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>212.7293032143256</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="C4" t="n">
-        <v>212.7293032143256</v>
+        <v>751.9508228902786</v>
       </c>
       <c r="D4" t="n">
-        <v>212.7293032143256</v>
+        <v>601.8341834779428</v>
       </c>
       <c r="E4" t="n">
-        <v>212.7293032143256</v>
+        <v>453.9210898955497</v>
       </c>
       <c r="F4" t="n">
-        <v>212.7293032143256</v>
+        <v>307.0311423976393</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>139.3283057723583</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S4" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T4" t="n">
-        <v>502.1464732512862</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U4" t="n">
-        <v>502.1464732512862</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="V4" t="n">
-        <v>502.1464732512862</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="W4" t="n">
-        <v>212.7293032143256</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="X4" t="n">
-        <v>212.7293032143256</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="Y4" t="n">
-        <v>212.7293032143256</v>
+        <v>920.8870058181855</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1959.379186075721</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C5" t="n">
-        <v>1590.416669135309</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4588,7 +4588,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794324</v>
+        <v>2655.939195183548</v>
       </c>
       <c r="W5" t="n">
-        <v>2403.03827352421</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="X5" t="n">
-        <v>2349.518518051532</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="Y5" t="n">
-        <v>1959.379186075721</v>
+        <v>2303.170539913434</v>
       </c>
     </row>
     <row r="6">
@@ -4622,64 +4622,64 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.5194080306463</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>168.6193326979431</v>
+        <v>440.098254770655</v>
       </c>
       <c r="C7" t="n">
-        <v>168.6193326979431</v>
+        <v>440.098254770655</v>
       </c>
       <c r="D7" t="n">
-        <v>168.6193326979431</v>
+        <v>289.9816153583192</v>
       </c>
       <c r="E7" t="n">
-        <v>168.6193326979431</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4734,43 +4734,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S7" t="n">
-        <v>639.3706644025392</v>
+        <v>729.2011216450114</v>
       </c>
       <c r="T7" t="n">
-        <v>639.3706644025392</v>
+        <v>729.2011216450114</v>
       </c>
       <c r="U7" t="n">
-        <v>350.2677975281828</v>
+        <v>440.098254770655</v>
       </c>
       <c r="V7" t="n">
-        <v>350.2677975281828</v>
+        <v>440.098254770655</v>
       </c>
       <c r="W7" t="n">
-        <v>350.2677975281828</v>
+        <v>440.098254770655</v>
       </c>
       <c r="X7" t="n">
-        <v>350.2677975281828</v>
+        <v>440.098254770655</v>
       </c>
       <c r="Y7" t="n">
-        <v>350.2677975281828</v>
+        <v>440.098254770655</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1617.939223126803</v>
+        <v>1285.591601078695</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.939223126803</v>
+        <v>916.6290841382836</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>558.3633855315331</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>558.3633855315331</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>551.4178847823297</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4801,55 +4801,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794324</v>
+        <v>2788.565186649823</v>
       </c>
       <c r="W8" t="n">
-        <v>2403.038273524209</v>
+        <v>2435.796531379709</v>
       </c>
       <c r="X8" t="n">
-        <v>2394.678395166736</v>
+        <v>2062.330773118629</v>
       </c>
       <c r="Y8" t="n">
-        <v>2004.539063190924</v>
+        <v>1672.191441142817</v>
       </c>
     </row>
     <row r="9">
@@ -4859,34 +4859,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064542</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L9" t="n">
         <v>765.1517452158131</v>
@@ -4916,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>331.5406302391191</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="C10" t="n">
-        <v>331.5406302391191</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="D10" t="n">
-        <v>331.5406302391191</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>331.5406302391191</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V10" t="n">
-        <v>576.372060369826</v>
+        <v>666.2025176122982</v>
       </c>
       <c r="W10" t="n">
-        <v>513.1890950693588</v>
+        <v>542.9636223427266</v>
       </c>
       <c r="X10" t="n">
-        <v>513.1890950693588</v>
+        <v>542.9636223427266</v>
       </c>
       <c r="Y10" t="n">
-        <v>513.1890950693588</v>
+        <v>542.9636223427266</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,16 +5029,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
@@ -5050,10 +5050,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5068,22 +5068,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5117,28 +5117,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>806.8386896933887</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C13" t="n">
-        <v>637.9025067654818</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654818</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5241,10 +5241,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y13" t="n">
-        <v>916.2946447138411</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="14">
@@ -5275,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C15" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D15" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>2383.002557118213</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>2383.002557118213</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>2817.800993781637</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>2817.800993781637</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>3445.398957336244</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>3997.308687575531</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S15" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T15" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U15" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V15" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W15" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X15" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y15" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>526.5658826424041</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>376.4492432300683</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>376.4492432300683</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5497,10 +5497,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5518,10 +5518,10 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.55866301478</v>
@@ -5530,10 +5530,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5715,10 +5715,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1016.58045691144</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5743,19 +5743,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332386</v>
@@ -5767,34 +5767,34 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>734.6461798836018</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C22" t="n">
-        <v>565.7099969556949</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D22" t="n">
-        <v>415.5933575433592</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>415.5933575433592</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>415.5933575433592</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>248.3972582582391</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>106.6854271004372</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y22" t="n">
-        <v>916.2946447138415</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5983,58 +5983,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.852361107581</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>579.1554649516144</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.517090583878</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>2231.588527385792</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>2381.235169913447</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>2490.323821483081</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>2490.323821483081</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>3087.702309109633</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>3715.300272664239</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>4267.210002903526</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>734.6461798836018</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="C28" t="n">
-        <v>565.7099969556949</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D28" t="n">
-        <v>415.5933575433592</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E28" t="n">
-        <v>267.680263960966</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F28" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>916.2946447138415</v>
+        <v>697.5276345711974</v>
       </c>
     </row>
     <row r="29">
@@ -6439,31 +6439,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6478,37 +6478,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2530.951795518647</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>809.0422355233313</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>640.1060525954244</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1547.241535601839</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1257.824365564879</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1029.834814666861</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>809.0422355233313</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6679,34 +6679,34 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014779</v>
@@ -6718,31 +6718,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263526</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356194</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232836</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2341.482060890433</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2052.406834234631</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V34" t="n">
-        <v>1797.722346028744</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W34" t="n">
-        <v>1508.305175991783</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.315625093766</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="35">
@@ -6913,46 +6913,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>579.1554649516144</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1804.131916132773</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>956.9553291057244</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C37" t="n">
-        <v>788.0191461778176</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D37" t="n">
-        <v>637.9025067654818</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E37" t="n">
-        <v>489.9894131830887</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2131.487582220359</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1876.803094014472</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W37" t="n">
-        <v>1587.385923977512</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X37" t="n">
-        <v>1359.396373079494</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y37" t="n">
-        <v>1138.603793935964</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="38">
@@ -7171,25 +7171,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2389.141387573227</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2169.539922596168</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1880.464695940366</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1625.780207734479</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1336.363037697518</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1108.373486799501</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>887.5809076559709</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,13 +7423,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7487,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>542.9134462654469</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>734.6461798836018</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C43" t="n">
-        <v>565.7099969556949</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D43" t="n">
-        <v>415.5933575433592</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E43" t="n">
-        <v>267.680263960966</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>120.7903164630557</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>120.7903164630557</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>120.7903164630557</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y43" t="n">
-        <v>916.2946447138415</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7724,25 +7724,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>924.8344286397185</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1053.171308869726</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C46" t="n">
-        <v>884.2351259418192</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D46" t="n">
-        <v>734.1184865294834</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>586.2053929470903</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>439.3154454491799</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>272.1193461640599</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741513</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W46" t="n">
-        <v>1683.601903741513</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X46" t="n">
-        <v>1455.612352843496</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y46" t="n">
-        <v>1234.819773699966</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
   </sheetData>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.47058471168944</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>131.695219374394</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>87.17534280744522</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>92.15795203868058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>39.70888054695394</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>68.52575990662484</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>73.62417772602052</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
     </row>
     <row r="26">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>54.56191943763255</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>2.00531331087754</v>
       </c>
     </row>
     <row r="29">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>46.02952154336791</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25086,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,13 +25125,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>179.3544845744802</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>211.9838267404998</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25320,10 +25320,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,16 +25362,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>257.6444250803513</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>65.54986409393064</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>123.7828069546809</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>105.2672314396031</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>54.56191943763254</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>34.97276993489203</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>45.04089287986224</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,10 +26082,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>821785.2548503019</v>
+        <v>821785.2548503018</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>821785.2548503019</v>
+        <v>821785.2548503018</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>821785.2548503018</v>
+        <v>821785.2548503019</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>821785.2548503019</v>
+        <v>821785.2548503018</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>821785.2548503019</v>
+        <v>821785.2548503018</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>821785.2548503019</v>
+        <v>821785.2548503018</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>821785.2548503019</v>
+        <v>821785.2548503018</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>821785.2548503018</v>
+        <v>821785.2548503019</v>
       </c>
     </row>
     <row r="16">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982122</v>
+        <v>615781.3273982127</v>
       </c>
       <c r="C2" t="n">
         <v>615781.3273982123</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982122</v>
+        <v>615781.3273982123</v>
       </c>
       <c r="E2" t="n">
-        <v>605359.9497675046</v>
+        <v>605359.9497675047</v>
       </c>
       <c r="F2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="G2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="H2" t="n">
         <v>605359.9497675042</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="J2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="K2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="L2" t="n">
         <v>605359.9497675045</v>
       </c>
-      <c r="I2" t="n">
-        <v>605359.9497675044</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="N2" t="n">
         <v>605359.9497675042</v>
       </c>
-      <c r="K2" t="n">
-        <v>605359.9497675046</v>
-      </c>
-      <c r="L2" t="n">
-        <v>605359.9497675046</v>
-      </c>
-      <c r="M2" t="n">
-        <v>605359.9497675046</v>
-      </c>
-      <c r="N2" t="n">
-        <v>605359.9497675045</v>
-      </c>
       <c r="O2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="P2" t="n">
         <v>605359.9497675042</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,37 +26417,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405247</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405253</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.7441040525</v>
       </c>
       <c r="E4" t="n">
+        <v>15436.64000687972</v>
+      </c>
+      <c r="F4" t="n">
+        <v>15436.64000687969</v>
+      </c>
+      <c r="G4" t="n">
         <v>15436.64000687967</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
+        <v>15436.64000687972</v>
+      </c>
+      <c r="I4" t="n">
+        <v>15436.64000687973</v>
+      </c>
+      <c r="J4" t="n">
         <v>15436.64000687967</v>
-      </c>
-      <c r="G4" t="n">
-        <v>15436.64000687966</v>
-      </c>
-      <c r="H4" t="n">
-        <v>15436.64000687966</v>
-      </c>
-      <c r="I4" t="n">
-        <v>15436.64000687966</v>
-      </c>
-      <c r="J4" t="n">
-        <v>15436.64000687966</v>
       </c>
       <c r="K4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="L4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="M4" t="n">
         <v>15436.64000687967</v>
@@ -26456,7 +26456,7 @@
         <v>15436.64000687967</v>
       </c>
       <c r="O4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="P4" t="n">
         <v>15436.64000687967</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-914494.1029948263</v>
+        <v>-914494.1029948258</v>
       </c>
       <c r="C6" t="n">
+        <v>414250.6427327667</v>
+      </c>
+      <c r="D6" t="n">
         <v>414250.6427327665</v>
       </c>
-      <c r="D6" t="n">
-        <v>414250.6427327663</v>
-      </c>
       <c r="E6" t="n">
-        <v>163388.3181293625</v>
+        <v>163040.9388750058</v>
       </c>
       <c r="F6" t="n">
-        <v>488800.7799367175</v>
+        <v>488453.4006823605</v>
       </c>
       <c r="G6" t="n">
-        <v>488800.7799367174</v>
+        <v>488453.4006823603</v>
       </c>
       <c r="H6" t="n">
-        <v>488800.7799367175</v>
+        <v>488453.4006823605</v>
       </c>
       <c r="I6" t="n">
-        <v>488800.7799367175</v>
+        <v>488453.4006823604</v>
       </c>
       <c r="J6" t="n">
-        <v>271269.57753944</v>
+        <v>270922.1982850828</v>
       </c>
       <c r="K6" t="n">
-        <v>488800.7799367178</v>
+        <v>488453.4006823605</v>
       </c>
       <c r="L6" t="n">
-        <v>488800.7799367178</v>
+        <v>488453.4006823607</v>
       </c>
       <c r="M6" t="n">
-        <v>403745.752001206</v>
+        <v>403398.3727468486</v>
       </c>
       <c r="N6" t="n">
-        <v>488800.7799367176</v>
+        <v>488453.4006823605</v>
       </c>
       <c r="O6" t="n">
-        <v>488800.7799367176</v>
+        <v>488453.4006823603</v>
       </c>
       <c r="P6" t="n">
-        <v>488800.7799367174</v>
+        <v>488453.4006823605</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26810,16 +26810,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27387,10 +27387,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>290.1909435705138</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>258.2608625745988</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>-2.218824057434369e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27539,22 +27539,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>72.66698746754768</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>83.69700003642876</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27624,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27675,16 +27675,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>228.883202195466</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>316.746542760518</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>70.62020673262599</v>
       </c>
       <c r="F7" t="n">
-        <v>44.3349039198292</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27855,19 +27855,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>267.0497091470551</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>361.4548211045708</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28019,19 +28019,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28073,7 +28073,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>223.9718626891284</v>
+        <v>164.5164920197151</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28140,7 +28140,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1.133261760295336e-12</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28395,7 +28395,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>5.464171643889758e-13</v>
       </c>
     </row>
     <row r="15">
@@ -28857,7 +28857,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29040,7 +29040,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31609,7 +31609,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
         <v>593.9283018233475</v>
@@ -31837,10 +31837,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31855,13 +31855,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>316.0872899694776</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -31995,7 +31995,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J14" t="n">
         <v>466.7546155663283</v>
@@ -32080,28 +32080,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>577.7447198439386</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32311,34 +32311,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>716.71805534327</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817572</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>574.6535388222617</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>300.7687781170413</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,34 +33016,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>248.0319961154033</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>168.0123247135882</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>237.3557891543622</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>198.560797075695</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>195.7502366106279</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>441.0292693655512</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,34 +34438,34 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>187.2159464875248</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M4" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35257,7 +35257,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
         <v>451.7942679013292</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35503,13 +35503,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>173.4910455250332</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35643,7 +35643,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
@@ -35728,28 +35728,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>439.1903400640643</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>574.5840214212516</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367767</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>432.0572943778172</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,22 +36442,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>169.427066033708</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>110.1905571410443</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,25 +36916,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>22.33282074962425</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,22 +37153,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>94.75954470991782</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,25 +37390,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>55.96455263125056</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>61.77582919629761</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>302.474889585677</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,28 +38092,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>55.87423440419153</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2285215.223120004</v>
+        <v>2286975.753422788</v>
       </c>
     </row>
     <row r="7">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -667,7 +667,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>90.98010614281421</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>108.9812949757272</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -803,7 +803,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>205.7729852034773</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>72.08802744677259</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -834,7 +834,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>72.0880274467731</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -904,7 +904,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>250.3451038329821</v>
       </c>
       <c r="V5" t="n">
-        <v>98.86905627466889</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1062,13 +1062,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>75.81375591394318</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>150.4026958753531</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1141,13 +1141,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>143.8720165063984</v>
+        <v>133.6650819731277</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1293,16 +1293,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>122.0065063168758</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>35.19979243143102</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695416</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1533,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>16.92025364381838</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1542,7 +1542,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>23.1099832571726</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.237938656053</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1767,22 +1767,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>161.0175085755509</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>99.43007309478924</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2134,10 +2134,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2241,22 +2241,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>127.5379405516739</v>
+        <v>39.52129633183119</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>80.08971311158706</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>275.8584009063783</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>216.5793400412173</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2845,7 +2845,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576153</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>110.0177171766856</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>95.12712756824172</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3192,10 +3192,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3240,10 +3240,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U34" t="n">
-        <v>74.20064764874441</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>147.0792452528011</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3435,13 +3435,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3483,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>186.5877792298974</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,10 +3663,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>164.5981994227929</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>43.3482415786093</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3915,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>113.6427030833203</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4194,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1959.379186075721</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>1590.416669135309</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4327,19 +4327,19 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4351,31 +4351,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W2" t="n">
-        <v>2332.8449443368</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="X2" t="n">
-        <v>1959.379186075721</v>
+        <v>2841.849394875185</v>
       </c>
       <c r="Y2" t="n">
-        <v>1959.379186075721</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="3">
@@ -4406,31 +4406,31 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4442,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>920.8870058181855</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>751.9508228902786</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>601.8341834779428</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>453.9210898955497</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>307.0311423976393</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G4" t="n">
-        <v>139.3283057723583</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962291</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2303.170539913434</v>
+        <v>1661.795585684488</v>
       </c>
       <c r="C5" t="n">
-        <v>1934.208022973022</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D5" t="n">
-        <v>1575.942324366272</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E5" t="n">
-        <v>1190.154071768027</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4588,7 +4588,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>2756.46356326495</v>
       </c>
       <c r="V5" t="n">
-        <v>2655.939195183548</v>
+        <v>2425.400675921379</v>
       </c>
       <c r="W5" t="n">
-        <v>2303.170539913434</v>
+        <v>2425.400675921379</v>
       </c>
       <c r="X5" t="n">
-        <v>2303.170539913434</v>
+        <v>2051.9349176603</v>
       </c>
       <c r="Y5" t="n">
-        <v>2303.170539913434</v>
+        <v>1661.795585684488</v>
       </c>
     </row>
     <row r="6">
@@ -4622,40 +4622,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.5194080306463</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4667,31 +4667,31 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>440.098254770655</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="C7" t="n">
-        <v>440.098254770655</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>289.9816153583192</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4734,43 +4734,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S7" t="n">
-        <v>729.2011216450114</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T7" t="n">
-        <v>729.2011216450114</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="U7" t="n">
-        <v>440.098254770655</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="V7" t="n">
-        <v>440.098254770655</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="W7" t="n">
-        <v>440.098254770655</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="X7" t="n">
-        <v>440.098254770655</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="Y7" t="n">
-        <v>440.098254770655</v>
+        <v>679.1346335501037</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1285.591601078695</v>
+        <v>2065.110222835252</v>
       </c>
       <c r="C8" t="n">
-        <v>916.6290841382836</v>
+        <v>1696.14770589484</v>
       </c>
       <c r="D8" t="n">
-        <v>558.3633855315331</v>
+        <v>1337.88200728809</v>
       </c>
       <c r="E8" t="n">
-        <v>558.3633855315331</v>
+        <v>952.0937546898456</v>
       </c>
       <c r="F8" t="n">
-        <v>551.4178847823297</v>
+        <v>541.1078499002381</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4801,55 +4801,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993394</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993394</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2788.565186649823</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W8" t="n">
-        <v>2435.796531379709</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="X8" t="n">
-        <v>2062.330773118629</v>
+        <v>2841.849394875186</v>
       </c>
       <c r="Y8" t="n">
-        <v>1672.191441142817</v>
+        <v>2451.710062899374</v>
       </c>
     </row>
     <row r="9">
@@ -4877,16 +4877,16 @@
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064542</v>
+        <v>85.51940803064538</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
         <v>765.1517452158131</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>361.3151575124869</v>
+        <v>482.8906159540807</v>
       </c>
       <c r="C10" t="n">
-        <v>361.3151575124869</v>
+        <v>313.9544330261738</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372933</v>
@@ -4971,43 +4971,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V10" t="n">
-        <v>666.2025176122982</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W10" t="n">
-        <v>542.9636223427266</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X10" t="n">
-        <v>542.9636223427266</v>
+        <v>885.3316599278505</v>
       </c>
       <c r="Y10" t="n">
-        <v>542.9636223427266</v>
+        <v>664.5390807843204</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,43 +5029,43 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492579</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,16 +5114,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>741.8431516380886</v>
+        <v>580.8993044876697</v>
       </c>
       <c r="C13" t="n">
-        <v>572.9069687101817</v>
+        <v>411.9631215597628</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>411.9631215597628</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>264.0500279773697</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>117.1600804794594</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X13" t="n">
-        <v>1144.284195611858</v>
+        <v>983.3403484614396</v>
       </c>
       <c r="Y13" t="n">
-        <v>923.4916164683283</v>
+        <v>762.5477693179095</v>
       </c>
     </row>
     <row r="14">
@@ -5275,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,7 +5290,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5317,10 +5317,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,13 +5354,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>870.3164745246301</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>701.3802915967232</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>551.2636521843874</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>403.3505586019943</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>256.4606111040839</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5436,52 +5436,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1272.7575184984</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>1051.96493935487</v>
       </c>
     </row>
     <row r="17">
@@ -5512,28 +5512,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>335.9629114732377</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5706,19 +5706,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="20">
@@ -5746,43 +5746,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>634.9279362553159</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
         <v>1948.813509611463</v>
@@ -5983,58 +5983,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6192,7 +6192,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
@@ -6229,7 +6229,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6241,7 +6241,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>697.5276345711974</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="C28" t="n">
-        <v>697.5276345711974</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711974</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6417,19 +6417,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1698.816231110126</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1444.131742904239</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1154.714572867279</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>926.7250219692613</v>
       </c>
       <c r="Y28" t="n">
-        <v>697.5276345711974</v>
+        <v>705.9324428257312</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075801</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6682,37 +6682,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>727.9786782557277</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>559.0424953278208</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>408.925855915485</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6888,22 +6888,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1902.510931370362</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1647.826443164475</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1358.409273127515</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1130.419722229497</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>909.6271430859674</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6913,46 +6913,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7022,22 +7022,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.0655846733346</v>
+        <v>868.6673633290469</v>
       </c>
       <c r="C37" t="n">
-        <v>411.1294017454277</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D37" t="n">
-        <v>261.0127623330919</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E37" t="n">
-        <v>261.0127623330919</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1499.913349582082</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W37" t="n">
-        <v>1210.496179545122</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X37" t="n">
-        <v>982.5066286471044</v>
+        <v>1238.024836667326</v>
       </c>
       <c r="Y37" t="n">
-        <v>761.7140495035743</v>
+        <v>1017.232257523796</v>
       </c>
     </row>
     <row r="38">
@@ -7162,10 +7162,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7177,7 +7177,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7365,19 +7365,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>768.5380889459582</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>599.6019060180513</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V43" t="n">
-        <v>1688.385853854706</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>1398.968683817745</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>1170.979132919728</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>950.1865537761979</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>768.5380889459582</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>599.6019060180513</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7842,16 +7842,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>950.1865537761979</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>131.695219374394</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>142.4141550350962</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>4.506629716717924</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23895,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>45.99097492814201</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24129,22 +24129,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>39.70888054695394</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24606,7 +24606,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>10.32607348286587</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>2.00531331087754</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>57.22910392194228</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24849,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>50.29392045468953</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25080,10 +25080,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25128,10 +25128,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U34" t="n">
-        <v>211.9838267404998</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>32.75273492913618</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25323,13 +25323,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>65.54986409393064</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25551,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>0.9259388694759707</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>105.2672314396031</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>34.97276993489203</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>821785.2548503018</v>
+        <v>821785.2548503019</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>821785.2548503019</v>
+        <v>821785.2548503018</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>821785.2548503019</v>
+        <v>821785.2548503018</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>821785.2548503018</v>
+        <v>821785.2548503019</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>821785.2548503018</v>
+        <v>821785.2548503019</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>821785.2548503018</v>
+        <v>821785.2548503019</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>821785.2548503019</v>
+        <v>821785.2548503018</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982127</v>
+        <v>615781.327398212</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982123</v>
+        <v>615781.3273982124</v>
       </c>
       <c r="D2" t="n">
         <v>615781.3273982123</v>
       </c>
       <c r="E2" t="n">
-        <v>605359.9497675047</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="F2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.949767504</v>
       </c>
       <c r="G2" t="n">
         <v>605359.9497675041</v>
@@ -26337,25 +26337,25 @@
         <v>605359.9497675041</v>
       </c>
       <c r="J2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="K2" t="n">
         <v>605359.9497675042</v>
       </c>
       <c r="L2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="M2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="N2" t="n">
         <v>605359.9497675042</v>
       </c>
       <c r="O2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="P2" t="n">
         <v>605359.9497675041</v>
-      </c>
-      <c r="P2" t="n">
-        <v>605359.9497675042</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,40 +26417,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405247</v>
+        <v>93596.74410405259</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.7441040525</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="E4" t="n">
-        <v>15436.64000687972</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687969</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="G4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="H4" t="n">
-        <v>15436.64000687972</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="I4" t="n">
-        <v>15436.64000687973</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="J4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="K4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.6400068797</v>
       </c>
       <c r="L4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="M4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="N4" t="n">
         <v>15436.64000687967</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-914494.1029948258</v>
+        <v>-914494.1029948264</v>
       </c>
       <c r="C6" t="n">
-        <v>414250.6427327667</v>
+        <v>414250.6427327666</v>
       </c>
       <c r="D6" t="n">
         <v>414250.6427327665</v>
       </c>
       <c r="E6" t="n">
-        <v>163040.9388750058</v>
+        <v>163353.5802039263</v>
       </c>
       <c r="F6" t="n">
-        <v>488453.4006823605</v>
+        <v>488766.0420112817</v>
       </c>
       <c r="G6" t="n">
-        <v>488453.4006823603</v>
+        <v>488766.0420112818</v>
       </c>
       <c r="H6" t="n">
-        <v>488453.4006823605</v>
+        <v>488766.0420112817</v>
       </c>
       <c r="I6" t="n">
-        <v>488453.4006823604</v>
+        <v>488766.0420112816</v>
       </c>
       <c r="J6" t="n">
-        <v>270922.1982850828</v>
+        <v>271234.8396140045</v>
       </c>
       <c r="K6" t="n">
-        <v>488453.4006823605</v>
+        <v>488766.0420112818</v>
       </c>
       <c r="L6" t="n">
-        <v>488453.4006823607</v>
+        <v>488766.0420112816</v>
       </c>
       <c r="M6" t="n">
-        <v>403398.3727468486</v>
+        <v>403711.0140757698</v>
       </c>
       <c r="N6" t="n">
-        <v>488453.4006823605</v>
+        <v>488766.0420112817</v>
       </c>
       <c r="O6" t="n">
-        <v>488453.4006823603</v>
+        <v>488766.0420112817</v>
       </c>
       <c r="P6" t="n">
-        <v>488453.4006823605</v>
+        <v>488766.0420112816</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>258.2608625745988</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>277.2566436803264</v>
       </c>
     </row>
     <row r="3">
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>-2.218824057434369e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>107.7439527351647</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27554,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>72.66698746754768</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27624,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,19 +27672,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>0.6500681259198586</v>
       </c>
       <c r="V5" t="n">
-        <v>228.883202195466</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27782,13 +27782,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>70.62020673262599</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>69.14625340081608</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27861,13 +27861,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>267.0497091470551</v>
+        <v>277.2566436803257</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28013,16 +28013,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28031,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28070,16 +28070,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>164.5164920197151</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>190.5098629576061</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28140,7 +28140,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.133261760295336e-12</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28395,7 +28395,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>5.464171643889758e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28857,7 +28857,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29040,7 +29040,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -29565,7 +29565,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>8.242295734817162e-13</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,19 +31843,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,16 +32080,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
         <v>398.7616643558013</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32475,7 +32475,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817572</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
         <v>867.846407116256</v>
@@ -32487,7 +32487,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
         <v>790.8204499236507</v>
@@ -32949,7 +32949,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L26" t="n">
         <v>867.846407116256</v>
@@ -32970,7 +32970,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
         <v>125.31755462929</v>
@@ -33207,7 +33207,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33742,25 +33742,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33897,7 +33897,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
         <v>867.846407116256</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,13 +35731,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
         <v>256.1654199113569</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -36123,7 +36123,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367767</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
@@ -36135,7 +36135,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
@@ -36597,7 +36597,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,25 +37390,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
